--- a/testData/routing_test_data.xlsx
+++ b/testData/routing_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_routing" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t>net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -685,7 +685,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -782,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -842,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -850,7 +850,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -864,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -874,7 +874,7 @@
         <v>255</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -898,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -906,23 +906,23 @@
         <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -946,15 +946,15 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -966,15 +966,15 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -988,37 +988,37 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1026,7 +1026,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1099,18 +1099,18 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1123,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/testData/routing_test_data.xlsx
+++ b/testData/routing_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网段IP地址不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网段格式不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,17 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该目的主机可以直接访问，不需要再配置路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机可以直接访问</t>
-  </si>
-  <si>
     <t>不选路由直接点击删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +211,10 @@
   </si>
   <si>
     <t>192.168.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网段地址不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -685,7 +674,7 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -708,6 +697,7 @@
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="63.25" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="31.875" customWidth="1"/>
@@ -744,7 +734,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -758,15 +748,15 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -782,21 +772,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -804,21 +794,21 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -828,21 +818,21 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -850,21 +840,21 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -874,21 +864,21 @@
         <v>255</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -898,39 +888,39 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -946,15 +936,15 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -966,15 +956,15 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -988,45 +978,23 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
+      <c r="A13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1050,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1099,18 +1067,18 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1123,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
